--- a/data/trans_orig/P57B3_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57B3_2023-Provincia-trans_orig.xlsx
@@ -788,19 +788,19 @@
         <v>4161</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1501</v>
+        <v>1558</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9127</v>
+        <v>9248</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01305035554662093</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.004707831043608132</v>
+        <v>0.004887527370794947</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02862548758164034</v>
+        <v>0.02900429481974111</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -809,19 +809,19 @@
         <v>5013</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2533</v>
+        <v>2567</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8858</v>
+        <v>9166</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01586150382294878</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.008012866320989563</v>
+        <v>0.008122315139913926</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02802523647081217</v>
+        <v>0.02899928884952977</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>15</v>
@@ -830,19 +830,19 @@
         <v>9174</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5381</v>
+        <v>5188</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>15229</v>
+        <v>15270</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.0144497649678147</v>
+        <v>0.01444976496781471</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.008474838869254578</v>
+        <v>0.008170798473942855</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02398621876354431</v>
+        <v>0.02405014591454543</v>
       </c>
     </row>
     <row r="6">
@@ -859,19 +859,19 @@
         <v>108450</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>91815</v>
+        <v>91406</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>127613</v>
+        <v>127147</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.340133373298352</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2879614505794446</v>
+        <v>0.2866790836251614</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4002346796259011</v>
+        <v>0.3987726369607764</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>196</v>
@@ -880,19 +880,19 @@
         <v>102753</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>90974</v>
+        <v>90787</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>116680</v>
+        <v>117044</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3251056891889882</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2878362346793379</v>
+        <v>0.2872447782197356</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3691704599919167</v>
+        <v>0.370320560638976</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>309</v>
@@ -901,19 +901,19 @@
         <v>211203</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>188320</v>
+        <v>190539</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>232258</v>
+        <v>234194</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.332652486253561</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2966102617656216</v>
+        <v>0.3001060203932135</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3658150878245638</v>
+        <v>0.3688638288409149</v>
       </c>
     </row>
     <row r="7">
@@ -930,19 +930,19 @@
         <v>206234</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>187673</v>
+        <v>187683</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>223375</v>
+        <v>223456</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6468162711550272</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5886024102543765</v>
+        <v>0.5886334416379666</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7005757489239532</v>
+        <v>0.700828954318376</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>332</v>
@@ -951,19 +951,19 @@
         <v>208295</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>193729</v>
+        <v>194140</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>220735</v>
+        <v>220666</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.659032806988063</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6129496883034806</v>
+        <v>0.6142489420337788</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.698392608337899</v>
+        <v>0.6981756671733141</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>545</v>
@@ -972,19 +972,19 @@
         <v>414529</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>393010</v>
+        <v>391557</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>437354</v>
+        <v>435310</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.6528977487786243</v>
+        <v>0.6528977487786244</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.619005497145529</v>
+        <v>0.6167164535461012</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6888477217487033</v>
+        <v>0.6856286406185687</v>
       </c>
     </row>
     <row r="8">
@@ -1076,19 +1076,19 @@
         <v>9110</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3957</v>
+        <v>3757</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>19244</v>
+        <v>17909</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01719776083023742</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.007469672043812912</v>
+        <v>0.007092214909522679</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0363281324293289</v>
+        <v>0.03380828580659439</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>15</v>
@@ -1097,19 +1097,19 @@
         <v>12381</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7251</v>
+        <v>7004</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>25735</v>
+        <v>22916</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02270382626328048</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01329767462856399</v>
+        <v>0.01284415632545784</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04719298065074241</v>
+        <v>0.04202451660039331</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>22</v>
@@ -1118,19 +1118,19 @@
         <v>21491</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>13516</v>
+        <v>13698</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>33738</v>
+        <v>34785</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01999072095193599</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01257255119549967</v>
+        <v>0.01274185882034428</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03138358322562728</v>
+        <v>0.03235702302898878</v>
       </c>
     </row>
     <row r="10">
@@ -1147,19 +1147,19 @@
         <v>31774</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20807</v>
+        <v>21012</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>47748</v>
+        <v>45899</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.05998310092928934</v>
+        <v>0.05998310092928933</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03927928129737893</v>
+        <v>0.03966652058486298</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09013805611107124</v>
+        <v>0.08664774187978232</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>61</v>
@@ -1168,19 +1168,19 @@
         <v>43006</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>32793</v>
+        <v>33382</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>53734</v>
+        <v>54784</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.07886535933820024</v>
+        <v>0.07886535933820026</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06013674760564879</v>
+        <v>0.06121642076330459</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09853800250559336</v>
+        <v>0.1004630933058614</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>87</v>
@@ -1189,19 +1189,19 @@
         <v>74780</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>60944</v>
+        <v>60300</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>94031</v>
+        <v>95765</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.06956115541938082</v>
+        <v>0.06956115541938084</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0566908557235318</v>
+        <v>0.0560915203343999</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0874687071031032</v>
+        <v>0.08908106677185909</v>
       </c>
     </row>
     <row r="11">
@@ -1218,19 +1218,19 @@
         <v>197216</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>167472</v>
+        <v>171892</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>225673</v>
+        <v>231768</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3723034642255757</v>
+        <v>0.3723034642255756</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3161523520664406</v>
+        <v>0.3244959451776118</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4260231258151549</v>
+        <v>0.4375304978834373</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>248</v>
@@ -1239,19 +1239,19 @@
         <v>192134</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>171863</v>
+        <v>174233</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>214300</v>
+        <v>214624</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.3523383501137912</v>
+        <v>0.3523383501137913</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3151657590607455</v>
+        <v>0.3195120966387292</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3929874144808643</v>
+        <v>0.3935809128840616</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>378</v>
@@ -1260,19 +1260,19 @@
         <v>389350</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>353168</v>
+        <v>355648</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>427473</v>
+        <v>427085</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3621761295221527</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3285196176775675</v>
+        <v>0.3308259402444909</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.397638584977113</v>
+        <v>0.3972775189667361</v>
       </c>
     </row>
     <row r="12">
@@ -1289,19 +1289,19 @@
         <v>291619</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>262954</v>
+        <v>257774</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>322431</v>
+        <v>318106</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.5505156740148975</v>
+        <v>0.5505156740148974</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4964023472596933</v>
+        <v>0.4866236009700637</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6086828116476447</v>
+        <v>0.6005187840779296</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>392</v>
@@ -1310,19 +1310,19 @@
         <v>297790</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>276027</v>
+        <v>276568</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>318103</v>
+        <v>317465</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.546092464284728</v>
+        <v>0.5460924642847281</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.506182771540523</v>
+        <v>0.5071749899921952</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5833421010167661</v>
+        <v>0.5821729949249942</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>610</v>
@@ -1331,19 +1331,19 @@
         <v>589409</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>548758</v>
+        <v>555987</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>624481</v>
+        <v>626139</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5482719941065305</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5104579904127563</v>
+        <v>0.5171829176390732</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5808960191105498</v>
+        <v>0.5824385566705413</v>
       </c>
     </row>
     <row r="13">
@@ -1435,19 +1435,19 @@
         <v>15053</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9524</v>
+        <v>9554</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>23320</v>
+        <v>23538</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04763724952392562</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03013873518271802</v>
+        <v>0.03023407524623932</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07379990948392703</v>
+        <v>0.07448846674567561</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>34</v>
@@ -1456,19 +1456,19 @@
         <v>19453</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>13088</v>
+        <v>13664</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>26555</v>
+        <v>26881</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05458453730800021</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03672405391588493</v>
+        <v>0.03834017073043384</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0745125419336371</v>
+        <v>0.07542704028570602</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>53</v>
@@ -1477,19 +1477,19 @@
         <v>34506</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>26659</v>
+        <v>25818</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>44954</v>
+        <v>45134</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.05131954672969659</v>
+        <v>0.05131954672969658</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03964885625904722</v>
+        <v>0.03839792626311496</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06685780107198246</v>
+        <v>0.06712556978973146</v>
       </c>
     </row>
     <row r="15">
@@ -1506,19 +1506,19 @@
         <v>20367</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>13206</v>
+        <v>13576</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>28432</v>
+        <v>29138</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.06445401985751557</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04179181021492843</v>
+        <v>0.04296363153753496</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.08997594927509513</v>
+        <v>0.09221168137524041</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>54</v>
@@ -1527,19 +1527,19 @@
         <v>31571</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>24385</v>
+        <v>23789</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>40775</v>
+        <v>40132</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.08858751518899335</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.06842490344963492</v>
+        <v>0.06675178117687812</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1144139708230554</v>
+        <v>0.1126087175070285</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>81</v>
@@ -1548,19 +1548,19 @@
         <v>51938</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>41359</v>
+        <v>41615</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>63077</v>
+        <v>64773</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.07724558761555463</v>
+        <v>0.07724558761555461</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.06151224806284575</v>
+        <v>0.06189206241568666</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.09381255357784769</v>
+        <v>0.0963346433771731</v>
       </c>
     </row>
     <row r="16">
@@ -1577,19 +1577,19 @@
         <v>45346</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>34551</v>
+        <v>34923</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>58381</v>
+        <v>57407</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1435026478236134</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1093403601458368</v>
+        <v>0.1105175761128851</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1847534085988268</v>
+        <v>0.1816729868908029</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>102</v>
@@ -1598,19 +1598,19 @@
         <v>62789</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>51913</v>
+        <v>52111</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>74830</v>
+        <v>75001</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1761863632464135</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1456665951773467</v>
+        <v>0.1462235123756008</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2099732400122723</v>
+        <v>0.2104530237674442</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>158</v>
@@ -1619,19 +1619,19 @@
         <v>108135</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>92617</v>
+        <v>92801</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>124774</v>
+        <v>125180</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1608261210575096</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1377454269459589</v>
+        <v>0.1380191507584629</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.185572126963089</v>
+        <v>0.1861751933246679</v>
       </c>
     </row>
     <row r="17">
@@ -1648,19 +1648,19 @@
         <v>235227</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>220850</v>
+        <v>220648</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>248837</v>
+        <v>248525</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7444060827949454</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6989073506420836</v>
+        <v>0.6982675119099144</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7874765657736411</v>
+        <v>0.7864897119120382</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>346</v>
@@ -1669,19 +1669,19 @@
         <v>242568</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>228379</v>
+        <v>227967</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>257927</v>
+        <v>255795</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.680641584256593</v>
+        <v>0.6806415842565928</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.640827944676473</v>
+        <v>0.6396731609658182</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7237390660991563</v>
+        <v>0.7177584150049257</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>604</v>
@@ -1690,19 +1690,19 @@
         <v>477796</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>458114</v>
+        <v>455164</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>496364</v>
+        <v>497996</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7106087445972393</v>
+        <v>0.7106087445972392</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6813369178025073</v>
+        <v>0.6769502293871793</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.738224604517192</v>
+        <v>0.7406526318629608</v>
       </c>
     </row>
     <row r="18">
@@ -1794,19 +1794,19 @@
         <v>5763</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2134</v>
+        <v>2147</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11727</v>
+        <v>12962</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01544413321754502</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005718808342020833</v>
+        <v>0.005752900157719901</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03142656679089527</v>
+        <v>0.03473706230946731</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>17</v>
@@ -1815,19 +1815,19 @@
         <v>9896</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5836</v>
+        <v>6378</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>16155</v>
+        <v>16158</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02355494483551096</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01389084266646459</v>
+        <v>0.01518047491445806</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03845175749092992</v>
+        <v>0.03845829163658936</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>23</v>
@@ -1836,19 +1836,19 @@
         <v>15659</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10441</v>
+        <v>10052</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>23757</v>
+        <v>23988</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01973977109484037</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01316161663724535</v>
+        <v>0.01267183003466897</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02994753053534249</v>
+        <v>0.03023882377834906</v>
       </c>
     </row>
     <row r="20">
@@ -1865,19 +1865,19 @@
         <v>12886</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6325</v>
+        <v>6238</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>24698</v>
+        <v>23000</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03453306575251056</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0169507241326727</v>
+        <v>0.01671862304795665</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0661883648708297</v>
+        <v>0.06163954715036459</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>39</v>
@@ -1886,19 +1886,19 @@
         <v>26155</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>18535</v>
+        <v>18731</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>40101</v>
+        <v>41557</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06225453754341657</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04411727223534579</v>
+        <v>0.04458277071999685</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09544667992793278</v>
+        <v>0.09891225215067914</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>50</v>
@@ -1907,19 +1907,19 @@
         <v>39041</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>27338</v>
+        <v>28039</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>55882</v>
+        <v>55127</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.04921487687676573</v>
+        <v>0.04921487687676575</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03446162671583482</v>
+        <v>0.03534499843993747</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0704443724439256</v>
+        <v>0.06949228933648882</v>
       </c>
     </row>
     <row r="21">
@@ -1936,19 +1936,19 @@
         <v>73197</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>55012</v>
+        <v>55401</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>92768</v>
+        <v>95728</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1961626547221155</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1474290238465832</v>
+        <v>0.148469538428396</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2486113066574222</v>
+        <v>0.2565441891844487</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>142</v>
@@ -1957,19 +1957,19 @@
         <v>83819</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>68734</v>
+        <v>71022</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>98425</v>
+        <v>99341</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1995040555939479</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1635979305520406</v>
+        <v>0.169045845011551</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2342682336057987</v>
+        <v>0.2364500315887204</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>199</v>
@@ -1978,19 +1978,19 @@
         <v>157016</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>134557</v>
+        <v>133531</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>183382</v>
+        <v>185156</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.1979323232613868</v>
+        <v>0.1979323232613869</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1696198860364712</v>
+        <v>0.1683264476068838</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2311681149897425</v>
+        <v>0.2334048659118582</v>
       </c>
     </row>
     <row r="22">
@@ -2007,19 +2007,19 @@
         <v>281299</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>258139</v>
+        <v>256932</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>300081</v>
+        <v>301488</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.753860146307829</v>
+        <v>0.7538601463078289</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6917929358280477</v>
+        <v>0.6885580434781748</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8041952788355289</v>
+        <v>0.8079653847489866</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>398</v>
@@ -2028,19 +2028,19 @@
         <v>300266</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>283346</v>
+        <v>281792</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>317360</v>
+        <v>315977</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7146864620271246</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6744143629468651</v>
+        <v>0.6707141407638908</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7553737536164988</v>
+        <v>0.7520816880448216</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>616</v>
@@ -2049,19 +2049,19 @@
         <v>581566</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>553934</v>
+        <v>550653</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>609058</v>
+        <v>607772</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.7331130287670069</v>
+        <v>0.733113028767007</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6982810324302603</v>
+        <v>0.6941448280947181</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7677694013726963</v>
+        <v>0.7661474732630695</v>
       </c>
     </row>
     <row r="23">
@@ -2153,19 +2153,19 @@
         <v>10404</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5868</v>
+        <v>5749</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>17790</v>
+        <v>17677</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05058598638694031</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02852996830312536</v>
+        <v>0.02795458543883351</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08649832462038412</v>
+        <v>0.08595008290367873</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>18</v>
@@ -2174,19 +2174,19 @@
         <v>7417</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4474</v>
+        <v>4677</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>11397</v>
+        <v>11983</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03269954469163009</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01972382223711378</v>
+        <v>0.020617461137837</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05024664022311123</v>
+        <v>0.05282768809500236</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>32</v>
@@ -2195,19 +2195,19 @@
         <v>17821</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>12182</v>
+        <v>12194</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>25113</v>
+        <v>25490</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04120523653554731</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02816839207225749</v>
+        <v>0.02819426752158114</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0580660045563044</v>
+        <v>0.05893824641038396</v>
       </c>
     </row>
     <row r="25">
@@ -2224,19 +2224,19 @@
         <v>20639</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>13999</v>
+        <v>13780</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>28607</v>
+        <v>30007</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1003530811968587</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06806941633379045</v>
+        <v>0.06700449813347797</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1390962342877778</v>
+        <v>0.1459035029982037</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>43</v>
@@ -2245,19 +2245,19 @@
         <v>19196</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>13918</v>
+        <v>14165</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>25481</v>
+        <v>25990</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08462907303929723</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06136092965510077</v>
+        <v>0.06244933659158991</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1123397927846965</v>
+        <v>0.1145835941151364</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>71</v>
@@ -2266,19 +2266,19 @@
         <v>39835</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>30678</v>
+        <v>30392</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>49658</v>
+        <v>50696</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09210644445937828</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07093483168516307</v>
+        <v>0.07027339425721581</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1148186888108512</v>
+        <v>0.1172202884851713</v>
       </c>
     </row>
     <row r="26">
@@ -2295,19 +2295,19 @@
         <v>99018</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>87018</v>
+        <v>85692</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>111264</v>
+        <v>110937</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4814514949233469</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4231061728464969</v>
+        <v>0.4166559168422501</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5409962225185191</v>
+        <v>0.5394075875474952</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>260</v>
@@ -2316,19 +2316,19 @@
         <v>115485</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>104340</v>
+        <v>104402</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>127944</v>
+        <v>126717</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5091401485494108</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4600070572019831</v>
+        <v>0.4602796314096355</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5640697982778107</v>
+        <v>0.558661561641308</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>400</v>
@@ -2337,19 +2337,19 @@
         <v>214502</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>198192</v>
+        <v>197659</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>232179</v>
+        <v>231202</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4959731274432502</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4582601691068338</v>
+        <v>0.4570287623931024</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5368455217080302</v>
+        <v>0.5345858180482926</v>
       </c>
     </row>
     <row r="27">
@@ -2366,19 +2366,19 @@
         <v>75604</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>64823</v>
+        <v>64165</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>87988</v>
+        <v>89158</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3676094374928541</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3151868795594336</v>
+        <v>0.3119888864883771</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.427821488838045</v>
+        <v>0.4335123347767661</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>170</v>
@@ -2387,19 +2387,19 @@
         <v>84725</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>72504</v>
+        <v>73984</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>95991</v>
+        <v>95223</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3735312337196618</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.319650174466798</v>
+        <v>0.3261732670322373</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4231960808471018</v>
+        <v>0.419810314542785</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>267</v>
@@ -2408,19 +2408,19 @@
         <v>160330</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>144754</v>
+        <v>144619</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>178009</v>
+        <v>177170</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3707151915618241</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3346997472960885</v>
+        <v>0.3343884436473587</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.411593425493177</v>
+        <v>0.4096541248872204</v>
       </c>
     </row>
     <row r="28">
@@ -2512,19 +2512,19 @@
         <v>21238</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>15228</v>
+        <v>15000</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>30224</v>
+        <v>28944</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.07845532734297017</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05625216762291128</v>
+        <v>0.05540901593860325</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1116481770163379</v>
+        <v>0.1069198185657809</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>32</v>
@@ -2533,19 +2533,19 @@
         <v>12290</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>8546</v>
+        <v>8363</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>17003</v>
+        <v>17671</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.04659727654128776</v>
+        <v>0.04659727654128773</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03240320373260434</v>
+        <v>0.03170828269664688</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06446613314472933</v>
+        <v>0.06699892084580317</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>67</v>
@@ -2554,19 +2554,19 @@
         <v>33528</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>26051</v>
+        <v>25012</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>42592</v>
+        <v>42574</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06273363984467535</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04874299154689334</v>
+        <v>0.04679851613979034</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07969202108081745</v>
+        <v>0.07965882663007873</v>
       </c>
     </row>
     <row r="30">
@@ -2583,19 +2583,19 @@
         <v>22338</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>16084</v>
+        <v>15997</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>31009</v>
+        <v>30618</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.08251653437194738</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.05941316384352131</v>
+        <v>0.05909419113197262</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1145470393751262</v>
+        <v>0.1131045894185564</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>58</v>
@@ -2604,19 +2604,19 @@
         <v>24410</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>18593</v>
+        <v>19114</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>31282</v>
+        <v>31765</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.09254866277262393</v>
+        <v>0.09254866277262389</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.07049381301991775</v>
+        <v>0.07247064944668745</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1186060038704613</v>
+        <v>0.1204362039084702</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>94</v>
@@ -2625,19 +2625,19 @@
         <v>46748</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>37493</v>
+        <v>37712</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>58178</v>
+        <v>57998</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.08746730768322213</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.07015133254568465</v>
+        <v>0.07056224721503089</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1088539885396736</v>
+        <v>0.1085171233969956</v>
       </c>
     </row>
     <row r="31">
@@ -2654,19 +2654,19 @@
         <v>32716</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>24150</v>
+        <v>23406</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>43319</v>
+        <v>43138</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1208548228320202</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.08921186405381279</v>
+        <v>0.08646077331622525</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1600203428390214</v>
+        <v>0.1593516148253149</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>65</v>
@@ -2675,19 +2675,19 @@
         <v>32348</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>24931</v>
+        <v>24906</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>40412</v>
+        <v>40866</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.122646482371489</v>
+        <v>0.1226464823714889</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.09452488315857056</v>
+        <v>0.09443126883148828</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1532196021705735</v>
+        <v>0.1549434501748308</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>112</v>
@@ -2696,19 +2696,19 @@
         <v>65064</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>51776</v>
+        <v>53719</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>77242</v>
+        <v>78517</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1217389921604645</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.09687606096962668</v>
+        <v>0.1005110888389708</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1445240012037316</v>
+        <v>0.1469095080666199</v>
       </c>
     </row>
     <row r="32">
@@ -2725,19 +2725,19 @@
         <v>194415</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>180448</v>
+        <v>181628</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>206262</v>
+        <v>206557</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.7181733154530623</v>
+        <v>0.7181733154530622</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6665817706656196</v>
+        <v>0.6709381460927665</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7619379279160143</v>
+        <v>0.763028927294282</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>305</v>
@@ -2746,19 +2746,19 @@
         <v>194702</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>184657</v>
+        <v>184783</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>205129</v>
+        <v>204331</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.7382075783145995</v>
+        <v>0.7382075783145993</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7001197810912064</v>
+        <v>0.700597521134397</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7777411693228836</v>
+        <v>0.7747136337943786</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>558</v>
@@ -2767,19 +2767,19 @@
         <v>389117</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>372591</v>
+        <v>370905</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>405689</v>
+        <v>405002</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7280600603116381</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6971385721670718</v>
+        <v>0.6939847644298424</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7590681813099563</v>
+        <v>0.7577818213335628</v>
       </c>
     </row>
     <row r="33">
@@ -2871,19 +2871,19 @@
         <v>24967</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>16899</v>
+        <v>15724</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>36347</v>
+        <v>35769</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.03469214730463115</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02348080609416576</v>
+        <v>0.02184786896095412</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05050425729598425</v>
+        <v>0.04970033472157766</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>44</v>
@@ -2892,19 +2892,19 @@
         <v>31747</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>23819</v>
+        <v>23351</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>42653</v>
+        <v>42278</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.04126904912796683</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.03096283802039392</v>
+        <v>0.03035441718920482</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.05544678931497464</v>
+        <v>0.05495883961584284</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>69</v>
@@ -2913,19 +2913,19 @@
         <v>56714</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>44439</v>
+        <v>43558</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>71148</v>
+        <v>71013</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.03809009390699163</v>
+        <v>0.03809009390699164</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02984611105942703</v>
+        <v>0.02925437952632774</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.04778361963076898</v>
+        <v>0.04769338683603143</v>
       </c>
     </row>
     <row r="35">
@@ -2942,19 +2942,19 @@
         <v>36419</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>25686</v>
+        <v>25401</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>53611</v>
+        <v>53167</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.05060446047893266</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.0356903338716186</v>
+        <v>0.03529462810052346</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.07449185467213255</v>
+        <v>0.07387558437487239</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>50</v>
@@ -2963,19 +2963,19 @@
         <v>42692</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>30847</v>
+        <v>31171</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>57034</v>
+        <v>55730</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.05549668464562357</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.04009921138665243</v>
+        <v>0.04052104827949212</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.07414069957373048</v>
+        <v>0.07244611651361635</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>81</v>
@@ -2984,19 +2984,19 @@
         <v>79111</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>62913</v>
+        <v>62264</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>101201</v>
+        <v>104531</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.05313202086096708</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.04225329676718585</v>
+        <v>0.04181729961905437</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.06796793804865475</v>
+        <v>0.07020412230633501</v>
       </c>
     </row>
     <row r="36">
@@ -3013,19 +3013,19 @@
         <v>194213</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>168778</v>
+        <v>168563</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>222742</v>
+        <v>223772</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2698575268478859</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2345164108860363</v>
+        <v>0.2342173973397747</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3094980984606627</v>
+        <v>0.3109292275446224</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>307</v>
@@ -3034,19 +3034,19 @@
         <v>236554</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>215107</v>
+        <v>215372</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>261552</v>
+        <v>265394</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3075061115060029</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2796270809074827</v>
+        <v>0.2799717486102579</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3400026781427042</v>
+        <v>0.3449972632184566</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>475</v>
@@ -3055,19 +3055,19 @@
         <v>430767</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>393656</v>
+        <v>395742</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>470018</v>
+        <v>466027</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2893086124439679</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.264384427476775</v>
+        <v>0.2657854284239361</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3156701492382254</v>
+        <v>0.3129896782384093</v>
       </c>
     </row>
     <row r="37">
@@ -3084,19 +3084,19 @@
         <v>464087</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>432948</v>
+        <v>433058</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>493361</v>
+        <v>491889</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.6448458653685503</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.6015779097686917</v>
+        <v>0.6017311793852812</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.6855210713512989</v>
+        <v>0.6834756615366752</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>555</v>
@@ -3105,19 +3105,19 @@
         <v>458273</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>430064</v>
+        <v>430264</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>481392</v>
+        <v>480976</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.5957281547204066</v>
+        <v>0.5957281547204065</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.5590588503182053</v>
+        <v>0.5593189548742143</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.6257812372357373</v>
+        <v>0.6252412179458121</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>930</v>
@@ -3126,19 +3126,19 @@
         <v>922360</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>880208</v>
+        <v>880877</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>962975</v>
+        <v>960359</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.6194692727880733</v>
+        <v>0.6194692727880735</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.5911595916551649</v>
+        <v>0.5916088583713686</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.6467471079426405</v>
+        <v>0.6449898397307446</v>
       </c>
     </row>
     <row r="38">
@@ -3230,19 +3230,19 @@
         <v>61645</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>47038</v>
+        <v>48353</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>78856</v>
+        <v>79170</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.07735417528662618</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.059024453964521</v>
+        <v>0.06067531748793197</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.09895175687848988</v>
+        <v>0.09934560555789741</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>93</v>
@@ -3251,19 +3251,19 @@
         <v>67367</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>55692</v>
+        <v>54598</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>81611</v>
+        <v>81724</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.08103505511782781</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.06699193750703476</v>
+        <v>0.06567578968251586</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.09816848975208368</v>
+        <v>0.09830495489190141</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>154</v>
@@ -3272,19 +3272,19 @@
         <v>129012</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>109863</v>
+        <v>108427</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>151567</v>
+        <v>149422</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.07923351388723066</v>
+        <v>0.07923351388723064</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.06747325940895618</v>
+        <v>0.06659133097278289</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.09308584429513787</v>
+        <v>0.09176872882334471</v>
       </c>
     </row>
     <row r="40">
@@ -3301,19 +3301,19 @@
         <v>120274</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>101826</v>
+        <v>103137</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>139787</v>
+        <v>144093</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1509243814265031</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1277745148168384</v>
+        <v>0.1294203945919828</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1754100661705855</v>
+        <v>0.1808128156716345</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>215</v>
@@ -3322,19 +3322,19 @@
         <v>152213</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>134442</v>
+        <v>134616</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>172148</v>
+        <v>172101</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.183095736436434</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1617190800178303</v>
+        <v>0.1619276957219314</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2070752163569333</v>
+        <v>0.2070181611960938</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>344</v>
@@ -3343,19 +3343,19 @@
         <v>272488</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>244692</v>
+        <v>245342</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>299313</v>
+        <v>301016</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.167350038355427</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.150279088610359</v>
+        <v>0.1506781733581243</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1838249341368168</v>
+        <v>0.1848710279619039</v>
       </c>
     </row>
     <row r="41">
@@ -3372,19 +3372,19 @@
         <v>394258</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>363520</v>
+        <v>367174</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>423574</v>
+        <v>422209</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.4947285164384648</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.4561577776506973</v>
+        <v>0.4607424196112073</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.531514621478368</v>
+        <v>0.5298028225828725</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>542</v>
@@ -3393,19 +3393,19 @@
         <v>427915</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>402191</v>
+        <v>402150</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>453693</v>
+        <v>456078</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.5147350534755316</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.4837919906743654</v>
+        <v>0.4837423125390674</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.5457434577191763</v>
+        <v>0.5486112080451377</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>926</v>
@@ -3414,19 +3414,19 @@
         <v>822173</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>783543</v>
+        <v>785268</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>864450</v>
+        <v>863331</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.5049432094038443</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.4812179616205281</v>
+        <v>0.4822776378179036</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.530907617723275</v>
+        <v>0.5302207216776882</v>
       </c>
     </row>
     <row r="42">
@@ -3443,19 +3443,19 @@
         <v>220741</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>196798</v>
+        <v>191900</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>252830</v>
+        <v>245603</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.276992926848406</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2469486976967589</v>
+        <v>0.2408028586554057</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3172595799900537</v>
+        <v>0.3081913589115202</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>212</v>
@@ -3464,19 +3464,19 @@
         <v>183836</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>160964</v>
+        <v>162351</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>206563</v>
+        <v>207325</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2211341549702066</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1936216396535233</v>
+        <v>0.195290551998967</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2484727027074689</v>
+        <v>0.2493888767708105</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>399</v>
@@ -3485,19 +3485,19 @@
         <v>404576</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>370946</v>
+        <v>368201</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>447026</v>
+        <v>440300</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2484732383534979</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2278189376063272</v>
+        <v>0.2261332850819889</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2745442052247292</v>
+        <v>0.270413472151635</v>
       </c>
     </row>
     <row r="43">
@@ -3589,19 +3589,19 @@
         <v>148181</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>127349</v>
+        <v>124412</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>173239</v>
+        <v>170511</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.04196939560380404</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.03606920439955062</v>
+        <v>0.03523754369452346</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.0490666391392745</v>
+        <v>0.04829413382377568</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>253</v>
@@ -3610,19 +3610,19 @@
         <v>160551</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>140206</v>
+        <v>141753</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>181829</v>
+        <v>183656</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.04305394431604317</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.03759816022579602</v>
+        <v>0.03801300370127016</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.04876010731776365</v>
+        <v>0.04924993445631787</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>420</v>
@@ -3631,19 +3631,19 @@
         <v>308731</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>278371</v>
+        <v>276868</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>338947</v>
+        <v>339443</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.04252648818149524</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.03834448525957444</v>
+        <v>0.03813750780618121</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.04668854255856134</v>
+        <v>0.04675694753516094</v>
       </c>
     </row>
     <row r="45">
@@ -3660,19 +3660,19 @@
         <v>268859</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>235591</v>
+        <v>239882</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>300576</v>
+        <v>300726</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.07614927417463377</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.06672669116883716</v>
+        <v>0.06794220468373606</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.08513247055323712</v>
+        <v>0.08517501389061663</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>530</v>
@@ -3681,19 +3681,19 @@
         <v>344256</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>315234</v>
+        <v>317138</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>378680</v>
+        <v>377446</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.09231714885433338</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.08453433213764086</v>
+        <v>0.08504511031394744</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.1015484067626119</v>
+        <v>0.1012173414596201</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>823</v>
@@ -3702,19 +3702,19 @@
         <v>613115</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>567939</v>
+        <v>575528</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>655719</v>
+        <v>664358</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.0844541136709681</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.0782313463541964</v>
+        <v>0.07927667640235336</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.0903226297634112</v>
+        <v>0.0915126677226463</v>
       </c>
     </row>
     <row r="46">
@@ -3731,19 +3731,19 @@
         <v>1144414</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>1083993</v>
+        <v>1080911</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>1202392</v>
+        <v>1205771</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.3241341831157277</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.3070211535158607</v>
+        <v>0.3061482345286492</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.3405553278499661</v>
+        <v>0.341512530813133</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>1862</v>
@@ -3752,19 +3752,19 @@
         <v>1253798</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>1203108</v>
+        <v>1205647</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>1304276</v>
+        <v>1307228</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.3362235035589667</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.3226304811989364</v>
+        <v>0.3233113556114928</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.3497600513898684</v>
+        <v>0.3505516541429334</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>2957</v>
@@ -3773,19 +3773,19 @@
         <v>2398212</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>2319803</v>
+        <v>2315407</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>2475992</v>
+        <v>2476131</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.3303440200850181</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.3195435858363626</v>
+        <v>0.3189380327577883</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.3410579557074108</v>
+        <v>0.3410771338891713</v>
       </c>
     </row>
     <row r="47">
@@ -3802,19 +3802,19 @@
         <v>1969227</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1900559</v>
+        <v>1902302</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>2034483</v>
+        <v>2034797</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.5577471471058344</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.5382983919356567</v>
+        <v>0.5387918551349018</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.5762297477866007</v>
+        <v>0.5763188108188676</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>2710</v>
@@ -3823,19 +3823,19 @@
         <v>1970455</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1919236</v>
+        <v>1910914</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>2024582</v>
+        <v>2021535</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.5284054032706568</v>
+        <v>0.5284054032706569</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.5146701210218427</v>
+        <v>0.5124384318672168</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.5429202355507832</v>
+        <v>0.5421032305969388</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>4529</v>
@@ -3844,19 +3844,19 @@
         <v>3939682</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>3857186</v>
+        <v>3860551</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>4026627</v>
+        <v>4030302</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.5426753780625185</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.5313118307892806</v>
+        <v>0.5317753917266821</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.5546516205255065</v>
+        <v>0.5551578359782025</v>
       </c>
     </row>
     <row r="48">
